--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Testcase name</t>
   </si>
@@ -48,49 +49,79 @@
     <t>Ssoftware1!</t>
   </si>
   <si>
+    <t>Post code</t>
+  </si>
+  <si>
+    <t>Earliest Date</t>
+  </si>
+  <si>
+    <t>Latest Date</t>
+  </si>
+  <si>
+    <t>16/10/2016</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>CaseReference</t>
+  </si>
+  <si>
+    <t>Booking Status</t>
+  </si>
+  <si>
+    <t>20/08/2016</t>
+  </si>
+  <si>
+    <t>Current Satus</t>
+  </si>
+  <si>
+    <t>test Booking</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Post code</t>
-  </si>
-  <si>
-    <t>Earliest Date</t>
-  </si>
-  <si>
-    <t>16/08/2016</t>
-  </si>
-  <si>
-    <t>Latest Date</t>
-  </si>
-  <si>
-    <t>16/10/2016</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>CaseReference</t>
-  </si>
-  <si>
-    <t>Testing purpose</t>
-  </si>
-  <si>
-    <t>BL0 0AQ</t>
-  </si>
-  <si>
-    <t>Booking Status</t>
-  </si>
-  <si>
     <t>Booked</t>
+  </si>
+  <si>
+    <t>BL0 0AJ</t>
+  </si>
+  <si>
+    <t>Rearranged</t>
+  </si>
+  <si>
+    <t>Booking Cancelled</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>23/08/2016</t>
+  </si>
+  <si>
+    <t>Appointment Date</t>
+  </si>
+  <si>
+    <t>AppointmentEndDate</t>
+  </si>
+  <si>
+    <t>30/08/2016</t>
   </si>
 </sst>
 </file>
@@ -413,7 +444,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -458,10 +489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,53 +503,108 @@
     <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Testcase name</t>
   </si>
@@ -58,37 +58,55 @@
     <t>Latest Date</t>
   </si>
   <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CaseReference</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Booking Status</t>
+  </si>
+  <si>
+    <t>Current Satus</t>
+  </si>
+  <si>
+    <t>BL0 0AJ</t>
+  </si>
+  <si>
     <t>16/10/2016</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
-    <t>CaseReference</t>
-  </si>
-  <si>
-    <t>Booking Status</t>
-  </si>
-  <si>
-    <t>20/08/2016</t>
-  </si>
-  <si>
-    <t>Current Satus</t>
-  </si>
-  <si>
     <t>test Booking</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Appointment Date</t>
+  </si>
+  <si>
+    <t>AppointmentEndDate</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>30/09/2016</t>
+  </si>
+  <si>
+    <t>14/09/2016</t>
   </si>
   <si>
     <t>Pass</t>
@@ -97,31 +115,10 @@
     <t>Booked</t>
   </si>
   <si>
-    <t>BL0 0AJ</t>
-  </si>
-  <si>
     <t>Rearranged</t>
   </si>
   <si>
     <t>Booking Cancelled</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>23/08/2016</t>
-  </si>
-  <si>
-    <t>Appointment Date</t>
-  </si>
-  <si>
-    <t>AppointmentEndDate</t>
-  </si>
-  <si>
-    <t>30/08/2016</t>
   </si>
 </sst>
 </file>
@@ -158,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,42 +444,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -491,82 +491,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -574,37 +571,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Testcase name</t>
   </si>
